--- a/tsohar.xlsx
+++ b/tsohar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E274"/>
+  <dimension ref="A1:E273"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,13 +463,13 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>תל אביב יפו</t>
+          <t>תל אביב - יפו</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-פיקה ירמיהו 
+פיצה מוריו 
 </t>
         </is>
       </c>
@@ -480,257 +480,257 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ירמיהו 27</t>
+          <t>לינקולן 19</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ירמיהו 27, תל אביב יפו</t>
+          <t>לינקולן 19, תל אביב - יפו</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>רחובות</t>
+          <t>תל אביב - יפו</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-פלאפל בדאלק 
+בר גוריון 
 </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>פרווה</t>
+          <t>בשרי</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>דרך ירושלים 15</t>
+          <t>אבן גבירול 82</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>דרך ירושלים 15, רחובות</t>
+          <t>אבן גבירול 82, תל אביב - יפו</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>גבעת זאב</t>
+          <t>רעננה</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
           <t xml:space="preserve">
-יקב אבנר 
+פרוטאין יוניקורן 
 </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>פרווה</t>
+          <t>חלבי</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>הרימון</t>
+          <t>בורוכוב 3</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>הרימון, גבעת זאב</t>
+          <t>בורוכוב 3, רעננה</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>יהוד</t>
+          <t>קרית-אונו</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
           <t xml:space="preserve">
-קפה ברטל 
+שניצל קוקי 
 </t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>חלבי</t>
+          <t>בשרי</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>אלמוג 2</t>
+          <t>שלמה המלך 37</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>אלמוג 2, יהוד</t>
+          <t>שלמה המלך 37, קרית-אונו</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>גבעתיים</t>
+          <t>תל אביב - יפו</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
           <t xml:space="preserve">
-טאטי בייקרי קניון גבעתיים 
+מטבח ביתי רמת אביב 
 </t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>חלבי</t>
+          <t>בשרי</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>יצחק רבין 53</t>
+          <t>לויטן 1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>יצחק רבין 53, גבעתיים</t>
+          <t>לויטן 1, תל אביב - יפו</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>עין גב</t>
+          <t>כנף</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
           <t xml:space="preserve">
-התורן 
+יקב סקוריה 
 </t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>חלבי</t>
+          <t>פרווה</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>נמל עין גב</t>
+          <t>משק 87</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>נמל עין גב, עין גב</t>
+          <t>משק 87, כנף</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>בני-דרור</t>
+          <t>גדרה</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
           <t xml:space="preserve">
-פרוטיאה בכפר 
+יקב כהנוב 
 </t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>בשרי, חלבי</t>
+          <t>פרווה</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>בני-דרור</t>
+          <t>גדרה</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>בני-דרור, בני-דרור</t>
+          <t>גדרה, גדרה</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>חולון</t>
+          <t>תל אביב - יפו</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
           <t xml:space="preserve">
-פירות וירקות האחים סרור 
+חצ'אפורי האחיות 
 </t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>פרווה</t>
+          <t>חלבי</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>חנקין 70</t>
+          <t>קרליבך 18</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>חנקין 70, חולון</t>
+          <t>קרליבך 18, תל אביב - יפו</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>הרצליה</t>
+          <t>ירושלים</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
           <t xml:space="preserve">
-גבינות המשק 
+הוט פוט ספוט – Hot Pot Spot 
 </t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>בשרי, חלבי</t>
+          <t>בשרי</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>יוסי שריד 6</t>
+          <t>בן יהודה 21</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>יוסי שריד 6, הרצליה</t>
+          <t>בן יהודה 21, ירושלים</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>הרצליה</t>
+          <t>ירושלים</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
           <t xml:space="preserve">
-חוויה קולינרית – NS 
+בית קפה שבלול 
 </t>
         </is>
       </c>
@@ -741,112 +741,112 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>דוד אלרואי 1</t>
+          <t>קמפוס ספרא גבעת רם</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>דוד אלרואי 1, הרצליה</t>
+          <t>קמפוס ספרא גבעת רם, ירושלים</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>תל אביב יפו</t>
+          <t>ירושלים</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
           <t xml:space="preserve">
-בר די אן איי DNA 
+קפה בגינה 
 </t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>בשרי, פרווה</t>
+          <t>חלבי</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>דרך בגין 132</t>
+          <t>דרך בית לחם 74</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>דרך בגין 132, תל אביב יפו</t>
+          <t>דרך בית לחם 74, ירושלים</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ירושלים</t>
+          <t>ראש העין</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
           <t xml:space="preserve">
-אמש ( א.מ.ש ) 
+דלי טופ  DELI TOP 
 </t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>חלבי</t>
+          <t>בשרי, חלבי</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>כ"ט בנובמבר 10</t>
+          <t>שבזי 187</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>כ"ט בנובמבר 10, ירושלים</t>
+          <t>שבזי 187, ראש העין</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>פרדס חנה - כרכור</t>
+          <t>ירושלים</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
           <t xml:space="preserve">
-קליית קפה בלומס 
+איתן ויהונתן / תל אביב בר 
 </t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>פרווה</t>
+          <t>בשרי</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>חרושת 1, מתחם הידית</t>
+          <t>שמעון בן שטח 2</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>חרושת 1, מתחם הידית, פרדס חנה - כרכור</t>
+          <t>שמעון בן שטח 2, ירושלים</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>רמת-גן</t>
+          <t>רחובות</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
           <t xml:space="preserve">
-קפה פורת 
+קאנוטו 
 </t>
         </is>
       </c>
@@ -857,83 +857,83 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>ביאליק 38</t>
+          <t>הרצל 198</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ביאליק 38, רמת-גן</t>
+          <t>הרצל 198, רחובות</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>יד מרדכי</t>
+          <t>סתריה</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
           <t xml:space="preserve">
-פיור האני Pure honey 
+מקרוני הפקות בע"מ 
 </t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>פרווה</t>
+          <t>חלבי</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>יד מרדכי</t>
+          <t>סתריה</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>יד מרדכי, יד מרדכי</t>
+          <t>סתריה, סתריה</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ערד</t>
+          <t>תל-יצחק</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
           <t xml:space="preserve">
-סטודיו קופי 
+טורטארט 
 </t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>חלבי</t>
+          <t>חלבי, פרווה</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>סדן 7</t>
+          <t>תל-יצחק</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>סדן 7, ערד</t>
+          <t>תל-יצחק, תל-יצחק</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>תל-אביב יפו</t>
+          <t>ירושלים</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
           <t xml:space="preserve">
-דה סאנדו בוקס The Sando Box 
+קפה מלכה 
 </t>
         </is>
       </c>
@@ -944,25 +944,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>יצחק שדה 4</t>
+          <t>הנשיא 13</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>יצחק שדה 4, תל-אביב יפו</t>
+          <t>הנשיא 13, ירושלים</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ירושלים</t>
+          <t>תל אביב יפו</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
           <t xml:space="preserve">
-קפה במפעל 
+פיקה ירמיהו 
 </t>
         </is>
       </c>
@@ -973,54 +973,54 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>המערבים 3</t>
+          <t>ירמיהו 27</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>המערבים 3, ירושלים</t>
+          <t>ירמיהו 27, תל אביב יפו</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>מעלה-החמישה</t>
+          <t>רחובות</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
           <t xml:space="preserve">
-הומייד 
+פלאפל בדאלק 
 </t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>בשרי</t>
+          <t>פרווה</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>אזור תעשיה מעלה החמישה</t>
+          <t>דרך ירושלים 15</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>אזור תעשיה מעלה החמישה, מעלה-החמישה</t>
+          <t>דרך ירושלים 15, רחובות</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>נתניה</t>
+          <t>יהוד</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
           <t xml:space="preserve">
-שף פקטורי 
+קפה ברטל 
 </t>
         </is>
       </c>
@@ -1031,25 +1031,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>גיבורי ישראל 34</t>
+          <t>אלמוג 2</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>גיבורי ישראל 34, נתניה</t>
+          <t>אלמוג 2, יהוד</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>רחובות</t>
+          <t>עין גב</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
           <t xml:space="preserve">
-קפה סנאיה 
+התורן 
 </t>
         </is>
       </c>
@@ -1060,340 +1060,344 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>הרצל 171</t>
+          <t>נמל עין גב</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>הרצל 171, רחובות</t>
+          <t>נמל עין גב, עין גב</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ראשון לציון</t>
+          <t>בני-דרור</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
           <t xml:space="preserve">
-ארומה שער ראשון 
+פרוטיאה בכפר 
 </t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>חלבי</t>
+          <t>בשרי, חלבי</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>גולדה מאיר 1</t>
+          <t>בני-דרור</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>גולדה מאיר 1, ראשון לציון</t>
+          <t>בני-דרור, בני-דרור</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>מודיעין-מכבים-רעות</t>
+          <t>חולון</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
           <t xml:space="preserve">
-אבי הבירה 
+פירות וירקות האחים סרור 
 </t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>בשרי, פרווה</t>
+          <t>פרווה</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>שדרות הרכס 13</t>
+          <t>חנקין 70</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>שדרות הרכס 13, מודיעין-מכבים-רעות</t>
+          <t>חנקין 70, חולון</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>פרדס חנה</t>
+          <t>הרצליה</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
           <t xml:space="preserve">
-דליקטו 
+גבינות המשק 
 </t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>חלבי, פרווה</t>
+          <t>בשרי, חלבי</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>דרך הבנים 3</t>
+          <t>יוסי שריד 6</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>דרך הבנים 3, פרדס חנה</t>
+          <t>יוסי שריד 6, הרצליה</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>חיפה</t>
+          <t>הרצליה</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
           <t xml:space="preserve">
-פת שטינבך מאפייה חשמלית 
+חוויה קולינרית – NS 
 </t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>חלבי, פרווה</t>
+          <t>חלבי</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>דרך יפו 28</t>
+          <t>דוד אלרואי 1</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>דרך יפו 28, חיפה</t>
+          <t>דוד אלרואי 1, הרצליה</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>מטע</t>
+          <t>תל אביב יפו</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
           <t xml:space="preserve">
-איתיאלה 
+בר די אן איי DNA 
 </t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>חלבי</t>
+          <t>בשרי, פרווה</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>האלה 19</t>
+          <t>דרך בגין 132</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>האלה 19, מטע</t>
+          <t>דרך בגין 132, תל אביב יפו</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>באר שבע</t>
+          <t>ירושלים</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
           <t xml:space="preserve">
-רגליס שוק 
+אמש ( א.מ.ש ) 
 </t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>פרווה</t>
+          <t>חלבי</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>יצחק בן צבי 9/4</t>
+          <t>כ"ט בנובמבר 10</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>יצחק בן צבי 9/4, באר שבע</t>
+          <t>כ"ט בנובמבר 10, ירושלים</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>באר שבע</t>
+          <t>פרדס חנה - כרכור</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
           <t xml:space="preserve">
-רגליס מרקט 
-</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr"/>
+קליית קפה בלומס 
+</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>פרווה</t>
+        </is>
+      </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>יצחק בן צבי 4/104</t>
+          <t>חרושת 1, מתחם הידית</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>יצחק בן צבי 4/104, באר שבע</t>
+          <t>חרושת 1, מתחם הידית, פרדס חנה - כרכור</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>באר שבע</t>
+          <t>רמת-גן</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
           <t xml:space="preserve">
-רגליס בית מאפה 
+קפה פורת 
 </t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>חלבי, פרווה</t>
+          <t>חלבי</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>יצחק בן צבי 9/1</t>
+          <t>ביאליק 38</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>יצחק בן צבי 9/1, באר שבע</t>
+          <t>ביאליק 38, רמת-גן</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ירושלים</t>
+          <t>יד מרדכי</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
           <t xml:space="preserve">
-מזנון מהיר יגנה 
+פיור האני Pure honey 
 </t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>חלבי</t>
+          <t>פרווה</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>יפו 19</t>
+          <t>יד מרדכי</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>יפו 19, ירושלים</t>
+          <t>יד מרדכי, יד מרדכי</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ראשון-לציון</t>
+          <t>ערד</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
           <t xml:space="preserve">
-אשר 
+סטודיו קופי 
 </t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>בשרי</t>
+          <t>חלבי</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>ז'בוטינסקי 24</t>
+          <t>סדן 7</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ז'בוטינסקי 24, ראשון-לציון</t>
+          <t>סדן 7, ערד</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>פתח תקווה</t>
+          <t>תל-אביב יפו</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
           <t xml:space="preserve">
-צ'יקן פיק 
+דה סאנדו בוקס The Sando Box 
 </t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>בשרי</t>
+          <t>חלבי</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>דרך שלמה שמלצר 94</t>
+          <t>יצחק שדה 4</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>דרך שלמה שמלצר 94, פתח תקווה</t>
+          <t>יצחק שדה 4, תל-אביב יפו</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>אשדוד</t>
+          <t>ירושלים</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
           <t xml:space="preserve">
-רוטשילד 30 
+קפה במפעל 
 </t>
         </is>
       </c>
@@ -1404,83 +1408,83 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>רוטשילד 30</t>
+          <t>המערבים 3</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>רוטשילד 30, אשדוד</t>
+          <t>המערבים 3, ירושלים</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>דימונה</t>
+          <t>מעלה-החמישה</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
           <t xml:space="preserve">
-ווישיי ישראל 
+הומייד 
 </t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>בשרי, חלבי</t>
+          <t>בשרי</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>ד"ר פליקס זנדמן 1</t>
+          <t>אזור תעשיה מעלה החמישה</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ד"ר פליקס זנדמן 1, דימונה</t>
+          <t>אזור תעשיה מעלה החמישה, מעלה-החמישה</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>דלית אל כרמל</t>
+          <t>נתניה</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
           <t xml:space="preserve">
-גליל eat 
+שף פקטורי 
 </t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>בשרי</t>
+          <t>חלבי</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>בית 21 רחוב 6</t>
+          <t>גיבורי ישראל 34</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>בית 21 רחוב 6, דלית אל כרמל</t>
+          <t>גיבורי ישראל 34, נתניה</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ירושלים</t>
+          <t>ראשון לציון</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
           <t xml:space="preserve">
-טנג'וי – TenJoy 
+ארומה שער ראשון 
 </t>
         </is>
       </c>
@@ -1491,112 +1495,112 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>בן גמלא 9</t>
+          <t>גולדה מאיר 1</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>בן גמלא 9, ירושלים</t>
+          <t>גולדה מאיר 1, ראשון לציון</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>קרית אונו</t>
+          <t>מודיעין-מכבים-רעות</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
           <t xml:space="preserve">
-סלון אוכל 
+אבי הבירה 
 </t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>חלבי</t>
+          <t>בשרי, פרווה</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>הנשיא 46</t>
+          <t>שדרות הרכס 13</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>הנשיא 46, קרית אונו</t>
+          <t>שדרות הרכס 13, מודיעין-מכבים-רעות</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>אשדוד</t>
+          <t>פרדס חנה</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
           <t xml:space="preserve">
-פנינה פאי – מפעל 
+דליקטו 
 </t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>חלבי</t>
+          <t>חלבי, פרווה</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>העבודה 69</t>
+          <t>דרך הבנים 3</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>העבודה 69, אשדוד</t>
+          <t>דרך הבנים 3, פרדס חנה</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>אשדוד</t>
+          <t>חיפה</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
           <t xml:space="preserve">
-פנינה פאי – חנות 
+פת שטינבך מאפייה חשמלית 
 </t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>חלבי</t>
+          <t>חלבי, פרווה</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>הציונות 13</t>
+          <t>דרך יפו 28</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>הציונות 13, אשדוד</t>
+          <t>דרך יפו 28, חיפה</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ירושלים</t>
+          <t>מטע</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
           <t xml:space="preserve">
-מסעדת מרגו 
+איתיאלה 
 </t>
         </is>
       </c>
@@ -1607,112 +1611,108 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>המלך ג'ורג' 21</t>
+          <t>האלה 19</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>המלך ג'ורג' 21, ירושלים</t>
+          <t>האלה 19, מטע</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>פרדס-חנה</t>
+          <t>באר שבע</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
           <t xml:space="preserve">
-הפודי של ברבי 
+רגליס שוק 
 </t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>בשרי</t>
+          <t>פרווה</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>דרך פיק"א 202</t>
+          <t>יצחק בן צבי 9/4</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>דרך פיק"א 202, פרדס-חנה</t>
+          <t>יצחק בן צבי 9/4, באר שבע</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>אלפי מנשה</t>
+          <t>באר שבע</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
           <t xml:space="preserve">
-ג'וסי לוסי 
-</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>בשרי</t>
-        </is>
-      </c>
+רגליס מרקט 
+</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr">
         <is>
-          <t>גלבוע 83</t>
+          <t>יצחק בן צבי 4/104</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>גלבוע 83, אלפי מנשה</t>
+          <t>יצחק בן צבי 4/104, באר שבע</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>נריה</t>
+          <t>באר שבע</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
           <t xml:space="preserve">
-יקב זלדה 
+רגליס בית מאפה 
 </t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>פרווה</t>
+          <t>חלבי, פרווה</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>זית רענן</t>
+          <t>יצחק בן צבי 9/1</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>זית רענן, נריה</t>
+          <t>יצחק בן צבי 9/1, באר שבע</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>שדי חמד</t>
+          <t>ירושלים</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
           <t xml:space="preserve">
-סוסקפה 
+מזנון מהיר יגנה 
 </t>
         </is>
       </c>
@@ -1723,83 +1723,83 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>שבעת המינים 1</t>
+          <t>יפו 19</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>שבעת המינים 1, שדי חמד</t>
+          <t>יפו 19, ירושלים</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ירושלים</t>
+          <t>ראשון-לציון</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
           <t xml:space="preserve">
-רוסטרס אקדמי 
+אשר 
 </t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>חלבי</t>
+          <t>בשרי</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>ישראל זמורה 1</t>
+          <t>ז'בוטינסקי 24</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>ישראל זמורה 1, ירושלים</t>
+          <t>ז'בוטינסקי 24, ראשון-לציון</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ירושלים</t>
+          <t>פתח תקווה</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
           <t xml:space="preserve">
-פלורה שוק 
+צ'יקן פיק 
 </t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>חלבי</t>
+          <t>בשרי</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>הדקל 2</t>
+          <t>דרך שלמה שמלצר 94</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>הדקל 2, ירושלים</t>
+          <t>דרך שלמה שמלצר 94, פתח תקווה</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ירושלים</t>
+          <t>אשדוד</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
           <t xml:space="preserve">
-פלורה עזה 
+רוטשילד 30 
 </t>
         </is>
       </c>
@@ -1810,83 +1810,83 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>דרך עזה 25</t>
+          <t>רוטשילד 30</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>דרך עזה 25, ירושלים</t>
+          <t>רוטשילד 30, אשדוד</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ירושלים</t>
+          <t>דימונה</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
           <t xml:space="preserve">
-פלורה בן מימון 
+ווישיי ישראל 
 </t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>חלבי</t>
+          <t>בשרי, חלבי</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>בן מימון 21</t>
+          <t>ד"ר פליקס זנדמן 1</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>בן מימון 21, ירושלים</t>
+          <t>ד"ר פליקס זנדמן 1, דימונה</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>לוד</t>
+          <t>דלית אל כרמל</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
           <t xml:space="preserve">
-קפסיטו 
+גליל eat 
 </t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>חלבי</t>
+          <t>בשרי</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>הציונות 1</t>
+          <t>בית 21 רחוב 6</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>הציונות 1, לוד</t>
+          <t>בית 21 רחוב 6, דלית אל כרמל</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>לוד</t>
+          <t>ירושלים</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
           <t xml:space="preserve">
-פיצה פצץ 
+טנג'וי – TenJoy 
 </t>
         </is>
       </c>
@@ -1897,83 +1897,83 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>הציונות 1</t>
+          <t>בן גמלא 9</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>הציונות 1, לוד</t>
+          <t>בן גמלא 9, ירושלים</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>אשדוד</t>
+          <t>קרית אונו</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
           <t xml:space="preserve">
-בוטיק גורמה 
+סלון אוכל 
 </t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>בשרי, חלבי</t>
+          <t>חלבי</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>הציונות 13</t>
+          <t>הנשיא 46</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>הציונות 13, אשדוד</t>
+          <t>הנשיא 46, קרית אונו</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ירושלים</t>
+          <t>אשדוד</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
           <t xml:space="preserve">
-מסע ישראלי – אתרי לינה 
+פנינה פאי – מפעל 
 </t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>בשרי, חלבי</t>
+          <t>חלבי</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>זאב טור סיני 1, חוות טור סיני, עמק הארזים</t>
+          <t>העבודה 69</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>זאב טור סיני 1, חוות טור סיני, עמק הארזים, ירושלים</t>
+          <t>העבודה 69, אשדוד</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>רחובות</t>
+          <t>אשדוד</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
           <t xml:space="preserve">
-זהב שחור 
+פנינה פאי – חנות 
 </t>
         </is>
       </c>
@@ -1984,25 +1984,25 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>ביל"ו 2</t>
+          <t>הציונות 13</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>ביל"ו 2, רחובות</t>
+          <t>הציונות 13, אשדוד</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>תל אביב יפו</t>
+          <t>ירושלים</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
           <t xml:space="preserve">
-מוצ'יקווה 
+מסעדת מרגו 
 </t>
         </is>
       </c>
@@ -2013,108 +2013,112 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>בן יהודה 89</t>
+          <t>המלך ג'ורג' 21</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>בן יהודה 89, תל אביב יפו</t>
+          <t>המלך ג'ורג' 21, ירושלים</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>מודיעין מכבים רעות</t>
+          <t>פרדס-חנה</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
           <t xml:space="preserve">
-מעדניית איבגי 
+הפודי של ברבי 
 </t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>בשרי, חלבי</t>
+          <t>בשרי</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>דם המכבים 36</t>
+          <t>דרך פיק"א 202</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>דם המכבים 36, מודיעין מכבים רעות</t>
+          <t>דרך פיק"א 202, פרדס-חנה</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>נחושה</t>
+          <t>אלפי מנשה</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
           <t xml:space="preserve">
-בסט מרקט 
-</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr"/>
+ג'וסי לוסי 
+</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>בשרי</t>
+        </is>
+      </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>נחושה</t>
+          <t>גלבוע 83</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>נחושה, נחושה</t>
+          <t>גלבוע 83, אלפי מנשה</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>עין גב</t>
+          <t>שדי חמד</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
           <t xml:space="preserve">
-מטבח קיבוץ עין גב 
+סוסקפה 
 </t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>בשרי</t>
+          <t>בשרי, חלבי</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>עין גב</t>
+          <t>שבעת המינים 1</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>עין גב, עין גב</t>
+          <t>שבעת המינים 1, שדי חמד</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>עין גב</t>
+          <t>ירושלים</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
           <t xml:space="preserve">
-מפגש הדייגים 
+רוסטרס אקדמי 
 </t>
         </is>
       </c>
@@ -2125,70 +2129,70 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>עין גב</t>
+          <t>ישראל זמורה 1</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>עין גב, עין גב</t>
+          <t>ישראל זמורה 1, ירושלים</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>עין גב</t>
+          <t>ירושלים</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
           <t xml:space="preserve">
-כפר הנופש עין גב 
+פלורה שוק 
 </t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>בשרי, חלבי</t>
+          <t>חלבי</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>עין גב</t>
+          <t>הדקל 2</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>עין גב, עין גב</t>
+          <t>הדקל 2, ירושלים</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>אשקלון</t>
+          <t>ירושלים</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
           <t xml:space="preserve">
-קייטרינג נני 
+פלורה עזה 
 </t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>בשרי</t>
+          <t>חלבי</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>יהודה הלוי 38</t>
+          <t>דרך עזה 25</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>יהודה הלוי 38, אשקלון</t>
+          <t>דרך עזה 25, ירושלים</t>
         </is>
       </c>
     </row>
@@ -2201,23 +2205,23 @@
       <c r="B62" t="inlineStr">
         <is>
           <t xml:space="preserve">
-מוסללה ארט טרקס – מרכז סינסילה 
+פלורה בן מימון 
 </t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>פרווה</t>
+          <t>חלבי</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>אח'וואן א ספא 65</t>
+          <t>בן מימון 21</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>אח'וואן א ספא 65, ירושלים</t>
+          <t>בן מימון 21, ירושלים</t>
         </is>
       </c>
     </row>
@@ -2230,210 +2234,206 @@
       <c r="B63" t="inlineStr">
         <is>
           <t xml:space="preserve">
-פארינו  FARINO 
+בוטיק גורמה 
 </t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>חלבי</t>
+          <t>בשרי, חלבי</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>האשל 11</t>
+          <t>הציונות 13</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>האשל 11, אשדוד</t>
+          <t>הציונות 13, אשדוד</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>מודיעין-מכבים-רעות</t>
+          <t>ירושלים</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
           <t xml:space="preserve">
-המטבח של ישעיהו 
+מסע ישראלי – אתרי לינה 
 </t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>בשרי, פרווה</t>
+          <t>בשרי, חלבי</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>לוי 3</t>
+          <t>זאב טור סיני 1, חוות טור סיני, עמק הארזים</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>לוי 3, מודיעין-מכבים-רעות</t>
+          <t>זאב טור סיני 1, חוות טור סיני, עמק הארזים, ירושלים</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>גבעת ברנר</t>
+          <t>רחובות</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
           <t xml:space="preserve">
-לומיטו 
+זהב שחור 
 </t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>בשרי</t>
+          <t>חלבי</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>גבעת ברנר</t>
+          <t>ביל"ו 2</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>גבעת ברנר, גבעת ברנר</t>
+          <t>ביל"ו 2, רחובות</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>צופית</t>
+          <t>תל אביב יפו</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
           <t xml:space="preserve">
-שושה עגלת קפה 
+מוצ'יקווה 
 </t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>חלבי, פרווה</t>
+          <t>חלבי</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>האילנות 108</t>
+          <t>בן יהודה 89</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>האילנות 108, צופית</t>
+          <t>בן יהודה 89, תל אביב יפו</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>גן נר</t>
+          <t>מודיעין מכבים רעות</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
           <t xml:space="preserve">
-הכל דבש עמוס 
+מעדניית איבגי 
 </t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>פרווה</t>
+          <t>בשרי, חלבי</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>כלנית 91</t>
+          <t>דם המכבים 36</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>כלנית 91, גן נר</t>
+          <t>דם המכבים 36, מודיעין מכבים רעות</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>תל אביב יפו</t>
+          <t>נחושה</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
           <t xml:space="preserve">
-פעמוני 
-</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>פרווה</t>
-        </is>
-      </c>
+בסט מרקט 
+</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr">
         <is>
-          <t>הילדסהיימר 35</t>
+          <t>נחושה</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>הילדסהיימר 35, תל אביב יפו</t>
+          <t>נחושה, נחושה</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>ציפורי</t>
+          <t>עין גב</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
           <t xml:space="preserve">
-יקב יונה 
+מטבח קיבוץ עין גב 
 </t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>פרווה</t>
+          <t>בשרי</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>ציפורי</t>
+          <t>עין גב</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>ציפורי, ציפורי</t>
+          <t>עין גב, עין גב</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>מבשרת ציון</t>
+          <t>עין גב</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
           <t xml:space="preserve">
-דיה Dia 
+מפגש הדייגים 
 </t>
         </is>
       </c>
@@ -2444,303 +2444,315 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>המגרסות 1</t>
+          <t>עין גב</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>המגרסות 1, מבשרת ציון</t>
+          <t>עין גב, עין גב</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>נס ציונה</t>
+          <t>עין גב</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
           <t xml:space="preserve">
-רימילק remilk 
+כפר הנופש עין גב 
 </t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>חלבי</t>
+          <t>בשרי, חלבי</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>אילן רמון 6</t>
+          <t>עין גב</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>אילן רמון 6, נס ציונה</t>
+          <t>עין גב, עין גב</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>חגור</t>
+          <t>אשקלון</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
           <t xml:space="preserve">
-משק אהרון- שמן זית 
+קייטרינג נני 
 </t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>פרווה</t>
+          <t>בשרי</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>הכלנית 74</t>
+          <t>יהודה הלוי 38</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>הכלנית 74, חגור</t>
+          <t>יהודה הלוי 38, אשקלון</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>מודיעין-מכבים-רעות</t>
+          <t>ירושלים</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
           <t xml:space="preserve">
-טנג'וי – TenJoy 
+מוסללה ארט טרקס – מרכז סינסילה 
 </t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>חלבי, פרווה</t>
+          <t>פרווה</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>חטיבת גולני 9</t>
+          <t>אח'וואן א ספא 65</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>חטיבת גולני 9, מודיעין-מכבים-רעות</t>
+          <t>אח'וואן א ספא 65, ירושלים</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>רעננה</t>
+          <t>אשדוד</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
           <t xml:space="preserve">
-טסה שוקולד בע"מ 
-</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr"/>
+פארינו  FARINO 
+</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>חלבי</t>
+        </is>
+      </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>התעשייה 2</t>
+          <t>האשל 11</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>התעשייה 2, רעננה</t>
+          <t>האשל 11, אשדוד</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>חולון</t>
+          <t>מודיעין-מכבים-רעות</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
           <t xml:space="preserve">
-סופר מרקט סרור 
-</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr"/>
+המטבח של ישעיהו 
+</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>בשרי, פרווה</t>
+        </is>
+      </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>חנקין 79</t>
+          <t>לוי 3</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>חנקין 79, חולון</t>
+          <t>לוי 3, מודיעין-מכבים-רעות</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>חולון</t>
+          <t>גבעת ברנר</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
           <t xml:space="preserve">
-סופר האחים סרור 
-</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr"/>
+לומיטו 
+</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>בשרי</t>
+        </is>
+      </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>חנקין 70</t>
+          <t>גבעת ברנר</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>חנקין 70, חולון</t>
+          <t>גבעת ברנר, גבעת ברנר</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>ירושלים</t>
+          <t>צופית</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
           <t xml:space="preserve">
-הגורן 
+שושה עגלת קפה 
 </t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>בשרי</t>
+          <t>חלבי, פרווה</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>ריבלין 1</t>
+          <t>האילנות 108</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>ריבלין 1, ירושלים</t>
+          <t>האילנות 108, צופית</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>גבעת שמואל</t>
+          <t>גן נר</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
           <t xml:space="preserve">
-טנג'וי  TenJoy 
+הכל דבש עמוס 
 </t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>חלבי</t>
+          <t>פרווה</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>מנחם בגין 30</t>
+          <t>כלנית 91</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>מנחם בגין 30, גבעת שמואל</t>
+          <t>כלנית 91, גן נר</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>שדה בועז</t>
+          <t>תל אביב יפו</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
           <t xml:space="preserve">
-הימלאיה צ'אי בר 
+פעמוני 
 </t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>חלבי, פרווה</t>
+          <t>פרווה</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>שדה בועז</t>
+          <t>הילדסהיימר 35</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>שדה בועז, שדה בועז</t>
+          <t>הילדסהיימר 35, תל אביב יפו</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>כפר סבא</t>
+          <t>מבשרת ציון</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
           <t xml:space="preserve">
-באנבשר 
+דיה Dia 
 </t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>בשרי</t>
+          <t>חלבי</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>רוטשילד 45</t>
+          <t>המגרסות 1</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>רוטשילד 45, כפר סבא</t>
+          <t>המגרסות 1, מבשרת ציון</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>ירושלים</t>
+          <t>נס ציונה</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
           <t xml:space="preserve">
-סיפתח פארק סן סימון 
+רימילק remilk 
 </t>
         </is>
       </c>
@@ -2751,302 +2763,290 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>מעלה זאב 3</t>
+          <t>אילן רמון 6</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>מעלה זאב 3, ירושלים</t>
+          <t>אילן רמון 6, נס ציונה</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>ירושלים</t>
+          <t>מודיעין-מכבים-רעות</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
           <t xml:space="preserve">
-איצ'יקדנה קולינריה הודית אמיתית 
+טנג'וי – TenJoy 
 </t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>חלבי</t>
+          <t>חלבי, פרווה</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>הלל 24</t>
+          <t>חטיבת גולני 9</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>הלל 24, ירושלים</t>
+          <t>חטיבת גולני 9, מודיעין-מכבים-רעות</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>ירושלים</t>
+          <t>רעננה</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
           <t xml:space="preserve">
-בראנצ' כריכים וארוחות 
-</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>בשרי, חלבי</t>
-        </is>
-      </c>
+טסה שוקולד בע"מ 
+</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr">
         <is>
-          <t>דרך בלפור 4, גבעת רם</t>
+          <t>התעשייה 2</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>דרך בלפור 4, גבעת רם, ירושלים</t>
+          <t>התעשייה 2, רעננה</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>תל אביב יפו</t>
+          <t>חולון</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
           <t xml:space="preserve">
-די אן איי DNA פוד טראק 
-</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>בשרי</t>
-        </is>
-      </c>
+סופר מרקט סרור 
+</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr">
         <is>
-          <t>דרך בגין 132</t>
+          <t>חנקין 79</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>דרך בגין 132, תל אביב יפו</t>
+          <t>חנקין 79, חולון</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>תל אביב יפו</t>
+          <t>חולון</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
           <t xml:space="preserve">
-קירש קפה 
-</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>חלבי, פרווה</t>
-        </is>
-      </c>
+סופר האחים סרור 
+</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr">
         <is>
-          <t>דיזנגוף 189</t>
+          <t>חנקין 70</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>דיזנגוף 189, תל אביב יפו</t>
+          <t>חנקין 70, חולון</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>גדיש</t>
+          <t>ירושלים</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
           <t xml:space="preserve">
-יופי מתוק 
+הגורן 
 </t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>חלבי, פרווה</t>
+          <t>בשרי</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>משק 1</t>
+          <t>ריבלין 1</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>משק 1, גדיש</t>
+          <t>ריבלין 1, ירושלים</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>פרדס חנה</t>
+          <t>גבעת שמואל</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
           <t xml:space="preserve">
-לאוון פטיסרי Leaven Patisserie 
+טנג'וי  TenJoy 
 </t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>חלבי, פרווה</t>
+          <t>חלבי</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>המושב 33</t>
+          <t>מנחם בגין 30</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>המושב 33, פרדס חנה</t>
+          <t>מנחם בגין 30, גבעת שמואל</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>ירושלים</t>
+          <t>שדה בועז</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
           <t xml:space="preserve">
-ארומה קינג ג'ורג' 
+הימלאיה צ'אי בר 
 </t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>חלבי</t>
+          <t>חלבי, פרווה</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>קינג ג'ורג' 14</t>
+          <t>שדה בועז</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>קינג ג'ורג' 14, ירושלים</t>
+          <t>שדה בועז, שדה בועז</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>עכו</t>
+          <t>כפר סבא</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
           <t xml:space="preserve">
-קריספי 
+באנבשר 
 </t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>בשרי, חלבי</t>
+          <t>בשרי</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>דרך המכללה 1</t>
+          <t>רוטשילד 45</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>דרך המכללה 1, עכו</t>
+          <t>רוטשילד 45, כפר סבא</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>נשר</t>
+          <t>ירושלים</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
           <t xml:space="preserve">
-שווארמה בכיכר 
+סיפתח פארק סן סימון 
 </t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>בשרי</t>
+          <t>חלבי</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>ברק 2</t>
+          <t>מעלה זאב 3</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>ברק 2, נשר</t>
+          <t>מעלה זאב 3, ירושלים</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>נשר</t>
+          <t>ירושלים</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
           <t xml:space="preserve">
-סביחא 
+איצ'יקדנה קולינריה הודית אמיתית 
 </t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>בשרי</t>
+          <t>חלבי</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>ברק 2</t>
+          <t>הלל 24</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>ברק 2, נשר</t>
+          <t>הלל 24, ירושלים</t>
         </is>
       </c>
     </row>
@@ -3059,23 +3059,23 @@
       <c r="B92" t="inlineStr">
         <is>
           <t xml:space="preserve">
-בין עזה לברלין 
+בראנצ' כריכים וארוחות 
 </t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>בשרי</t>
+          <t>בשרי, חלבי</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>עזה 19</t>
+          <t>דרך בלפור 4, גבעת רם</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>עזה 19, ירושלים</t>
+          <t>דרך בלפור 4, גבעת רם, ירושלים</t>
         </is>
       </c>
     </row>
@@ -3088,7 +3088,7 @@
       <c r="B93" t="inlineStr">
         <is>
           <t xml:space="preserve">
-קיטשן 94 
+די אן איי DNA פוד טראק 
 </t>
         </is>
       </c>
@@ -3099,83 +3099,83 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>יגאל אלון 94</t>
+          <t>דרך בגין 132</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>יגאל אלון 94, תל אביב יפו</t>
+          <t>דרך בגין 132, תל אביב יפו</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>נווה ימין</t>
+          <t>תל אביב יפו</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
           <t xml:space="preserve">
-יקב נווה ימין 
+קירש קפה 
 </t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>פרווה</t>
+          <t>חלבי, פרווה</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>הברוש 47</t>
+          <t>דיזנגוף 189</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>הברוש 47, נווה ימין</t>
+          <t>דיזנגוף 189, תל אביב יפו</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>אשקלון</t>
+          <t>פרדס חנה</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
           <t xml:space="preserve">
-אלגרה ולאון 
+לאוון פטיסרי Leaven Patisserie 
 </t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>חלבי</t>
+          <t>חלבי, פרווה</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>הנמל 9</t>
+          <t>המושב 33</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>הנמל 9, אשקלון</t>
+          <t>המושב 33, פרדס חנה</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>בת ים</t>
+          <t>ירושלים</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
           <t xml:space="preserve">
-ארומה רוטשילד 
+ארומה קינג ג'ורג' 
 </t>
         </is>
       </c>
@@ -3186,83 +3186,83 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>רוטשילד 29</t>
+          <t>קינג ג'ורג' 14</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>רוטשילד 29, בת ים</t>
+          <t>קינג ג'ורג' 14, ירושלים</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>תל אביב יפו</t>
+          <t>עכו</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
           <t xml:space="preserve">
-טאלי לאמה 
+קריספי 
 </t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>פרווה</t>
+          <t>בשרי, חלבי</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>מנחם בגין 48</t>
+          <t>דרך המכללה 1</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>מנחם בגין 48, תל אביב יפו</t>
+          <t>דרך המכללה 1, עכו</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>תל אביב יפו</t>
+          <t>נשר</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
           <t xml:space="preserve">
-חוות נעמי 
+שווארמה בכיכר 
 </t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>בשרי, חלבי</t>
+          <t>בשרי</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>החשמונאים 107</t>
+          <t>ברק 2</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>החשמונאים 107, תל אביב יפו</t>
+          <t>ברק 2, נשר</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>מחניים</t>
+          <t>נשר</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
           <t xml:space="preserve">
-מבשלים ביחד 
+סביחא 
 </t>
         </is>
       </c>
@@ -3273,25 +3273,25 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>"יחד בגליל" קיבוץ מחניים</t>
+          <t>ברק 2</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>"יחד בגליל" קיבוץ מחניים, מחניים</t>
+          <t>ברק 2, נשר</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>יסוד המעלה</t>
+          <t>ירושלים</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
           <t xml:space="preserve">
-פו בכיכר 
+בין עזה לברלין 
 </t>
         </is>
       </c>
@@ -3302,141 +3302,141 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>השמורה 1</t>
+          <t>עזה 19</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>השמורה 1, יסוד המעלה</t>
+          <t>עזה 19, ירושלים</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>ראש פינה</t>
+          <t>תל אביב יפו</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
           <t xml:space="preserve">
-אוסול 
+קיטשן 94 
 </t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>פרווה</t>
+          <t>בשרי</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>האגס 1</t>
+          <t>יגאל אלון 94</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>האגס 1, ראש פינה</t>
+          <t>יגאל אלון 94, תל אביב יפו</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>יסוד המעלה</t>
+          <t>אשקלון</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
           <t xml:space="preserve">
-אוסול 
+אלגרה ולאון 
 </t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>פרווה</t>
+          <t>חלבי</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>יסוד המעלה</t>
+          <t>הנמל 9</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>יסוד המעלה, יסוד המעלה</t>
+          <t>הנמל 9, אשקלון</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>נווה צוף</t>
+          <t>בת ים</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
           <t xml:space="preserve">
-הבוסתן 
+ארומה רוטשילד 
 </t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>פרווה</t>
+          <t>חלבי</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>השקד 31</t>
+          <t>רוטשילד 29</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>השקד 31, נווה צוף</t>
+          <t>רוטשילד 29, בת ים</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>פתח תקווה</t>
+          <t>תל אביב יפו</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
           <t xml:space="preserve">
-בסט רנט 
+טאלי לאמה 
 </t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>בשרי, חלבי</t>
+          <t>פרווה</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>הסיבים 18</t>
+          <t>מנחם בגין 48</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>הסיבים 18, פתח תקווה</t>
+          <t>מנחם בגין 48, תל אביב יפו</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>יהוד</t>
+          <t>תל אביב יפו</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
           <t xml:space="preserve">
-חוות נעמי יהוד 
+חוות נעמי 
 </t>
         </is>
       </c>
@@ -3447,25 +3447,25 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>משה דיין 3</t>
+          <t>החשמונאים 107</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>משה דיין 3, יהוד</t>
+          <t>החשמונאים 107, תל אביב יפו</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>תל אביב יפו</t>
+          <t>מחניים</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
           <t xml:space="preserve">
-אומאיי עזריאלי Oomai 
+מבשלים ביחד 
 </t>
         </is>
       </c>
@@ -3476,186 +3476,186 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>דרך מנחם בגין 132</t>
+          <t>"יחד בגליל" קיבוץ מחניים</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>דרך מנחם בגין 132, תל אביב יפו</t>
+          <t>"יחד בגליל" קיבוץ מחניים, מחניים</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>אלפי מנשה</t>
+          <t>יסוד המעלה</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
           <t xml:space="preserve">
-לה בנצ'טו 
+פו בכיכר 
 </t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>חלבי</t>
+          <t>בשרי</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>גלבוע 83</t>
+          <t>השמורה 1</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>גלבוע 83, אלפי מנשה</t>
+          <t>השמורה 1, יסוד המעלה</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>בנימינה</t>
+          <t>ראש פינה</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
           <t xml:space="preserve">
-רון פטיסרי  RON Pâtisserie 
+אוסול 
 </t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>חלבי</t>
+          <t>פרווה</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>המייסדים 30</t>
+          <t>האגס 1</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>המייסדים 30, בנימינה</t>
+          <t>האגס 1, ראש פינה</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>הרצליה</t>
+          <t>יסוד המעלה</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
           <t xml:space="preserve">
-ליב 
+אוסול 
 </t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>בשרי</t>
+          <t>פרווה</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>משכית 32</t>
+          <t>יסוד המעלה</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>משכית 32, הרצליה</t>
+          <t>יסוד המעלה, יסוד המעלה</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>חולון</t>
+          <t>נווה צוף</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
           <t xml:space="preserve">
-מרלי ברקפה 
+הבוסתן 
 </t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>חלבי</t>
+          <t>פרווה</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>קראוזה 43</t>
+          <t>השקד 31</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>קראוזה 43, חולון</t>
+          <t>השקד 31, נווה צוף</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>נס ציונה</t>
+          <t>פתח תקווה</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
           <t xml:space="preserve">
-פינובייקרי – בית קפה 
+בסט רנט 
 </t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>חלבי</t>
+          <t>בשרי, חלבי</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>יקינטון 6</t>
+          <t>הסיבים 18</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>יקינטון 6, נס ציונה</t>
+          <t>הסיבים 18, פתח תקווה</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>גני יוחנן</t>
+          <t>יהוד</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
           <t xml:space="preserve">
-בושקראפט 69 
+חוות נעמי יהוד 
 </t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>בשרי</t>
+          <t>בשרי, חלבי</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>הרקפת 69</t>
+          <t>משה דיין 3</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>הרקפת 69, גני יוחנן</t>
+          <t>משה דיין 3, יהוד</t>
         </is>
       </c>
     </row>
@@ -3668,94 +3668,94 @@
       <c r="B113" t="inlineStr">
         <is>
           <t xml:space="preserve">
-גרציאני בהשכלה 
+אומאיי עזריאלי Oomai 
 </t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>חלבי</t>
+          <t>בשרי</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>שדרות ההשכלה 20</t>
+          <t>דרך מנחם בגין 132</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>שדרות ההשכלה 20, תל אביב יפו</t>
+          <t>דרך מנחם בגין 132, תל אביב יפו</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>ירושלים</t>
+          <t>אלפי מנשה</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
           <t xml:space="preserve">
-בירה קדימה 
+לה בנצ'טו 
 </t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>פרווה</t>
+          <t>חלבי</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>בית הדפוס 11</t>
+          <t>גלבוע 83</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>בית הדפוס 11, ירושלים</t>
+          <t>גלבוע 83, אלפי מנשה</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>נס ציונה</t>
+          <t>בנימינה</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
           <t xml:space="preserve">
-מתוק התפוח 
+רון פטיסרי  RON Pâtisserie 
 </t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>פרווה</t>
+          <t>חלבי</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>ההדרים 11</t>
+          <t>המייסדים 30</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>ההדרים 11, נס ציונה</t>
+          <t>המייסדים 30, בנימינה</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>גדרה</t>
+          <t>הרצליה</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
           <t xml:space="preserve">
-מרכז הבשר 
+ליב 
 </t>
         </is>
       </c>
@@ -3766,83 +3766,83 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>אירוס 1</t>
+          <t>משכית 32</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>אירוס 1, גדרה</t>
+          <t>משכית 32, הרצליה</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>קרית עקרון</t>
+          <t>נס ציונה</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
           <t xml:space="preserve">
-לומיטו מעדני בשר 
+פינובייקרי – מאפייה 
 </t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>בשרי</t>
+          <t>חלבי</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>שדרות המלך חסן 6</t>
+          <t>יקינטון 6</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>שדרות המלך חסן 6, קרית עקרון</t>
+          <t>יקינטון 6, נס ציונה</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>תל אביב יפו</t>
+          <t>גני יוחנן</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
           <t xml:space="preserve">
-מורן גיל קייקרי 
+בושקראפט 69 
 </t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>חלבי</t>
+          <t>בשרי</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>אלנבי 31</t>
+          <t>הרקפת 69</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>אלנבי 31, תל אביב יפו</t>
+          <t>הרקפת 69, גני יוחנן</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>גני תקווה</t>
+          <t>תל אביב יפו</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
           <t xml:space="preserve">
-מגדלי הים התיכון – קפיטריה 
+גרציאני בהשכלה 
 </t>
         </is>
       </c>
@@ -3853,141 +3853,141 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>דרך הים 5</t>
+          <t>שדרות ההשכלה 20</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>דרך הים 5, גני תקווה</t>
+          <t>שדרות ההשכלה 20, תל אביב יפו</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>קרית מוצקין</t>
+          <t>ירושלים</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
           <t xml:space="preserve">
-קפה פלור 
+בירה קדימה 
 </t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>חלבי</t>
+          <t>פרווה</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>שדרות משה גושן 6</t>
+          <t>בית הדפוס 11</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>שדרות משה גושן 6, קרית מוצקין</t>
+          <t>בית הדפוס 11, ירושלים</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>בת שלמה</t>
+          <t>נס ציונה</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
           <t xml:space="preserve">
-משק לב אדם 
+מתוק התפוח 
 </t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>חלבי</t>
+          <t>פרווה</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>בת שלמה</t>
+          <t>ההדרים 11</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>בת שלמה, בת שלמה</t>
+          <t>ההדרים 11, נס ציונה</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>באר שבע</t>
+          <t>גדרה</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
           <t xml:space="preserve">
-טרה ג'ולי Très Jolie 
+מרכז הבשר 
 </t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>חלבי, פרווה</t>
+          <t>בשרי</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>ראובן רובין 3</t>
+          <t>אירוס 1</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>ראובן רובין 3, באר שבע</t>
+          <t>אירוס 1, גדרה</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>באר שבע</t>
+          <t>קרית עקרון</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
           <t xml:space="preserve">
-רוסטרס באר שבע 
+לומיטו מעדני בשר 
 </t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>חלבי</t>
+          <t>בשרי</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>יעקב כהן 12</t>
+          <t>שדרות המלך חסן 6</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>יעקב כהן 12, באר שבע</t>
+          <t>שדרות המלך חסן 6, קרית עקרון</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>מודיעין מכבים רעות</t>
+          <t>תל אביב יפו</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
           <t xml:space="preserve">
-רוסטרס מודיעין 
+מורן גיל קייקרי 
 </t>
         </is>
       </c>
@@ -3998,25 +3998,25 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>דם המכבים 55</t>
+          <t>אלנבי 31</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>דם המכבים 55, מודיעין מכבים רעות</t>
+          <t>אלנבי 31, תל אביב יפו</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>תל אביב יפו</t>
+          <t>גני תקווה</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
           <t xml:space="preserve">
-דדלוס 
+מגדלי הים התיכון – קפיטריה 
 </t>
         </is>
       </c>
@@ -4027,153 +4027,157 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>נחלת יצחק 32</t>
+          <t>דרך הים 5</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>נחלת יצחק 32, תל אביב יפו</t>
+          <t>דרך הים 5, גני תקווה</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>בני ציון</t>
+          <t>קרית מוצקין</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
           <t xml:space="preserve">
-זוקו קייטרינג 
+קפה פלור 
 </t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>בשרי, חלבי</t>
+          <t>חלבי</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>התלתן 7</t>
+          <t>שדרות משה גושן 6</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>התלתן 7, בני ציון</t>
+          <t>שדרות משה גושן 6, קרית מוצקין</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>אור עקיבא</t>
+          <t>בת שלמה</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
           <t xml:space="preserve">
-המטבח של גיא 
+משק לב אדם 
 </t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>בשרי</t>
+          <t>חלבי</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>שדרות הנשיא וייצמן 1</t>
+          <t>בת שלמה</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>שדרות הנשיא וייצמן 1, אור עקיבא</t>
+          <t>בת שלמה, בת שלמה</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>תל אביב יפו</t>
+          <t>באר שבע</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
           <t xml:space="preserve">
-גביז גודיז בע"מ 
+טרה ג'ולי Très Jolie 
 </t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>חלבי</t>
+          <t>חלבי, פרווה</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>אלנבי 31</t>
+          <t>ראובן רובין 3</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>אלנבי 31, תל אביב יפו</t>
+          <t>ראובן רובין 3, באר שבע</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>שדה בוקר</t>
+          <t>באר שבע</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
           <t xml:space="preserve">
-יקב שדה בוקר 
-</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr"/>
+רוסטרס באר שבע 
+</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>חלבי</t>
+        </is>
+      </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>שדה בוקר</t>
+          <t>יעקב כהן 12</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>שדה בוקר, שדה בוקר</t>
+          <t>יעקב כהן 12, באר שבע</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>פרדס חנה</t>
+          <t>מודיעין מכבים רעות</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
           <t xml:space="preserve">
-המזווה בוטיק בשרים 
+רוסטרס מודיעין 
 </t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>בשרי, חלבי</t>
+          <t>חלבי</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>המושב 42</t>
+          <t>דם המכבים 55</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>המושב 42, פרדס חנה</t>
+          <t>דם המכבים 55, מודיעין מכבים רעות</t>
         </is>
       </c>
     </row>
@@ -4186,7 +4190,7 @@
       <c r="B131" t="inlineStr">
         <is>
           <t xml:space="preserve">
-אילנס תל אביב   Tatti TLV 
+דדלוס 
 </t>
         </is>
       </c>
@@ -4197,83 +4201,83 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>קרליבך 4</t>
+          <t>נחלת יצחק 32</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>קרליבך 4, תל אביב יפו</t>
+          <t>נחלת יצחק 32, תל אביב יפו</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>נחושה</t>
+          <t>בני ציון</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
           <t xml:space="preserve">
-תן טראק – תן truck 
+זוקו קייטרינג 
 </t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>בשרי</t>
+          <t>בשרי, חלבי</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>נחושה</t>
+          <t>התלתן 7</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>נחושה, נחושה</t>
+          <t>התלתן 7, בני ציון</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>תל אביב יפו</t>
+          <t>אור עקיבא</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
           <t xml:space="preserve">
-דה פייסטרי בוקס  The Pastry Box 
+המטבח של גיא 
 </t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>חלבי, פרווה</t>
+          <t>בשרי</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>ריב"ל 7</t>
+          <t>שדרות הנשיא וייצמן 1</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>ריב"ל 7, תל אביב יפו</t>
+          <t>שדרות הנשיא וייצמן 1, אור עקיבא</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>אשדוד</t>
+          <t>תל אביב יפו</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
           <t xml:space="preserve">
-לה גוטא  Le Gouter 
+גביז גודיז בע"מ 
 </t>
         </is>
       </c>
@@ -4284,112 +4288,112 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>אבא הלל סילבר 11</t>
+          <t>אלנבי 31</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>אבא הלל סילבר 11, אשדוד</t>
+          <t>אלנבי 31, תל אביב יפו</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>לוטם</t>
+          <t>פרדס חנה</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
           <t xml:space="preserve">
-מחלבת שירת רועים / בית לגבינות 
+המזווה בוטיק בשרים 
 </t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>חלבי</t>
+          <t>בשרי, חלבי</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>א.ת לוטם משגב</t>
+          <t>המושב 42</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>א.ת לוטם משגב, לוטם</t>
+          <t>המושב 42, פרדס חנה</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>גני תקווה</t>
+          <t>תל אביב יפו</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
           <t xml:space="preserve">
-מגדלי הים התיכון גני תקווה 
+אילנס תל אביב   Tatti TLV 
 </t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>בשרי</t>
+          <t>חלבי</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>דרך הים 5</t>
+          <t>קרליבך 4</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>דרך הים 5, גני תקווה</t>
+          <t>קרליבך 4, תל אביב יפו</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>ירושלים</t>
+          <t>נחושה</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
           <t xml:space="preserve">
-אריק קפה בשכונה 
+תן טראק – תן truck 
 </t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>חלבי</t>
+          <t>בשרי</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>הפלמ"ח 18</t>
+          <t>נחושה</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>הפלמ"ח 18, ירושלים</t>
+          <t>נחושה, נחושה</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>ירושלים</t>
+          <t>תל אביב יפו</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
           <t xml:space="preserve">
-דולצ'ה קאסה – בית מתוק 
+דה פייסטרי בוקס  The Pastry Box 
 </t>
         </is>
       </c>
@@ -4400,25 +4404,25 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>אריה דולצ'ין 26</t>
+          <t>ריב"ל 7</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>אריה דולצ'ין 26, ירושלים</t>
+          <t>ריב"ל 7, תל אביב יפו</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>תל אביב יפו</t>
+          <t>אשדוד</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
           <t xml:space="preserve">
-אלון שבו 
+לה גוטא  Le Gouter 
 </t>
         </is>
       </c>
@@ -4429,83 +4433,83 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>צ'לנוב 22</t>
+          <t>אבא הלל סילבר 11</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>צ'לנוב 22, תל אביב יפו</t>
+          <t>אבא הלל סילבר 11, אשדוד</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>תל אביב יפו</t>
+          <t>לוטם</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
           <t xml:space="preserve">
-מזנון מישל עיתון הארץ 
+מחלבת שירת רועים 
 </t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>בשרי, חלבי</t>
+          <t>חלבי</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>שוקן 21</t>
+          <t>א.ת לוטם משגב</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>שוקן 21, תל אביב יפו</t>
+          <t>א.ת לוטם משגב, לוטם</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>ירושלים</t>
+          <t>גני תקווה</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
           <t xml:space="preserve">
-רוסטרס בצלאל 
+מגדלי הים התיכון גני תקווה 
 </t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>חלבי</t>
+          <t>בשרי</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>שמואל הנגיד 8</t>
+          <t>דרך הים 5</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>שמואל הנגיד 8, ירושלים</t>
+          <t>דרך הים 5, גני תקווה</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>תל אביב יפו</t>
+          <t>ירושלים</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
           <t xml:space="preserve">
-ספאגוס 
+אריק קפה בשכונה 
 </t>
         </is>
       </c>
@@ -4516,54 +4520,54 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>השרון 14</t>
+          <t>הפלמ"ח 18</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>השרון 14, תל אביב יפו</t>
+          <t>הפלמ"ח 18, ירושלים</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>עפולה</t>
+          <t>ירושלים</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
           <t xml:space="preserve">
-תירס עפולה 
+דולצ'ה קאסה – בית מתוק 
 </t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>חלבי</t>
+          <t>חלבי, פרווה</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>ויצמן 23</t>
+          <t>אריה דולצ'ין 26</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>ויצמן 23, עפולה</t>
+          <t>אריה דולצ'ין 26, ירושלים</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>הרצליה</t>
+          <t>תל אביב יפו</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
           <t xml:space="preserve">
-מארי פטיסרי 
+אלון שבו 
 </t>
         </is>
       </c>
@@ -4574,12 +4578,12 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>בן גוריון 22</t>
+          <t>צ'לנוב 22</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>בן גוריון 22, הרצליה</t>
+          <t>צ'לנוב 22, תל אביב יפו</t>
         </is>
       </c>
     </row>
@@ -4592,32 +4596,36 @@
       <c r="B145" t="inlineStr">
         <is>
           <t xml:space="preserve">
-שניט 
-</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr"/>
+מזנון מישל עיתון הארץ 
+</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>בשרי, חלבי</t>
+        </is>
+      </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>הארבעה 12</t>
+          <t>שוקן 21</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>הארבעה 12, תל אביב יפו</t>
+          <t>שוקן 21, תל אביב יפו</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>נתניה</t>
+          <t>ירושלים</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
           <t xml:space="preserve">
-סנשיין בנדיקט בייקרי 
+רוסטרס בצלאל 
 </t>
         </is>
       </c>
@@ -4628,12 +4636,12 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>דודו דותן 8</t>
+          <t>שמואל הנגיד 8</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>דודו דותן 8, נתניה</t>
+          <t>שמואל הנגיד 8, ירושלים</t>
         </is>
       </c>
     </row>
@@ -4646,90 +4654,90 @@
       <c r="B147" t="inlineStr">
         <is>
           <t xml:space="preserve">
-דגים זלאיט 
+ספאגוס 
 </t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>חלבי, פרווה</t>
+          <t>חלבי</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>נחלת יצחק 16</t>
+          <t>השרון 14</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>נחלת יצחק 16, תל אביב יפו</t>
+          <t>השרון 14, תל אביב יפו</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>רמת השרון</t>
+          <t>הרצליה</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
           <t xml:space="preserve">
-פלאפל הפעמונים 
+מארי פטיסרי 
 </t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>בשרי, פרווה</t>
+          <t>חלבי</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>סוקולוב 72</t>
+          <t>בן גוריון 22</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>סוקולוב 72, רמת השרון</t>
+          <t>בן גוריון 22, הרצליה</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>נטור</t>
+          <t>תל אביב יפו</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
           <t xml:space="preserve">
-יקב מיקה 
+שניט 
 </t>
         </is>
       </c>
       <c r="C149" t="inlineStr"/>
       <c r="D149" t="inlineStr">
         <is>
-          <t>נטור</t>
+          <t>הארבעה 12</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>נטור, נטור</t>
+          <t>הארבעה 12, תל אביב יפו</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>ירושלים</t>
+          <t>נתניה</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
           <t xml:space="preserve">
-ליבא 
+סנשיין בנדיקט בייקרי 
 </t>
         </is>
       </c>
@@ -4740,12 +4748,12 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>שץ 4</t>
+          <t>דודו דותן 8</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>שץ 4, ירושלים</t>
+          <t>דודו דותן 8, נתניה</t>
         </is>
       </c>
     </row>
@@ -4758,139 +4766,139 @@
       <c r="B151" t="inlineStr">
         <is>
           <t xml:space="preserve">
-האריה והתרנגול 
+דגים זלאיט 
 </t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>חלבי</t>
+          <t>חלבי, פרווה</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>לח"י 66</t>
+          <t>נחלת יצחק 16</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>לח"י 66, תל אביב יפו</t>
+          <t>נחלת יצחק 16, תל אביב יפו</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>ירושלים</t>
+          <t>רמת השרון</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
           <t xml:space="preserve">
-משק עפאים- מוזיאון ישראל 
+פלאפל הפעמונים 
 </t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>חלבי</t>
+          <t>בשרי, פרווה</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>שדרות רופין 11</t>
+          <t>סוקולוב 72</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>שדרות רופין 11, ירושלים</t>
+          <t>סוקולוב 72, רמת השרון</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>תל אביב יפו</t>
+          <t>נטור</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
           <t xml:space="preserve">
-הקוסם- שרונה 
+יקב מיקה 
 </t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>בשרי</t>
+          <t>פרווה</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>אלוף קלמן מגן 3</t>
+          <t>נטור</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>אלוף קלמן מגן 3, תל אביב יפו</t>
+          <t>נטור, נטור</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>תל אביב יפו</t>
+          <t>ירושלים</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
           <t xml:space="preserve">
-הקוסם 
+ליבא 
 </t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>בשרי</t>
+          <t>חלבי</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>שלמה המלך 1</t>
+          <t>שץ 4</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>שלמה המלך 1, תל אביב יפו</t>
+          <t>שץ 4, ירושלים</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>לוד</t>
+          <t>תל אביב יפו</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
           <t xml:space="preserve">
-מפגש 121 
+האריה והתרנגול 
 </t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>בשרי, חלבי</t>
+          <t>חלבי</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>תחנת דור אלון נתב"ג</t>
+          <t>לח"י 66</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>תחנת דור אלון נתב"ג, לוד</t>
+          <t>לח"י 66, תל אביב יפו</t>
         </is>
       </c>
     </row>
@@ -4903,7 +4911,7 @@
       <c r="B156" t="inlineStr">
         <is>
           <t xml:space="preserve">
-ג'חנון בר מחנה יהודה 
+משק עפאים- מוזיאון ישראל 
 </t>
         </is>
       </c>
@@ -4914,12 +4922,12 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>האגוז 20</t>
+          <t>שדרות רופין 11</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>האגוז 20, ירושלים</t>
+          <t>שדרות רופין 11, ירושלים</t>
         </is>
       </c>
     </row>
@@ -4932,90 +4940,94 @@
       <c r="B157" t="inlineStr">
         <is>
           <t xml:space="preserve">
-רוזמרין פיצה ביתית 
+הקוסם- שרונה 
 </t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>חלבי</t>
+          <t>בשרי</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>לינקולן 19</t>
+          <t>אלוף קלמן מגן 3</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>לינקולן 19, תל אביב יפו</t>
+          <t>אלוף קלמן מגן 3, תל אביב יפו</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>חיפה</t>
+          <t>תל אביב יפו</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
           <t xml:space="preserve">
-ארומה לב המפרץ 
+הקוסם 
 </t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>חלבי</t>
+          <t>בשרי</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>סינמול, שדרות ההסתדרות 55</t>
+          <t>שלמה המלך 1</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>סינמול, שדרות ההסתדרות 55, חיפה</t>
+          <t>שלמה המלך 1, תל אביב יפו</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>תלמי יחיאל</t>
+          <t>לוד</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
           <t xml:space="preserve">
-יקב שורר 
-</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr"/>
+מפגש 121 
+</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>בשרי, חלבי</t>
+        </is>
+      </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>תלמי יחיאל 80</t>
+          <t>תחנת דור אלון נתב"ג</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>תלמי יחיאל 80, תלמי יחיאל</t>
+          <t>תחנת דור אלון נתב"ג, לוד</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>נתניה</t>
+          <t>ירושלים</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
           <t xml:space="preserve">
-הפינה המתוקה 
+ג'חנון בר מחנה יהודה 
 </t>
         </is>
       </c>
@@ -5026,25 +5038,25 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>הגביש 4</t>
+          <t>האגוז 20</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>הגביש 4, נתניה</t>
+          <t>האגוז 20, ירושלים</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>עכו</t>
+          <t>חיפה</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
           <t xml:space="preserve">
-מלון עכותיקה 
+ארומה לב המפרץ 
 </t>
         </is>
       </c>
@@ -5055,54 +5067,54 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>ההגנה</t>
+          <t>סינמול, שדרות ההסתדרות 55</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>ההגנה, עכו</t>
+          <t>סינמול, שדרות ההסתדרות 55, חיפה</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>אשקלון</t>
+          <t>תלמי יחיאל</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
           <t xml:space="preserve">
-מטעמי השף אלון 
+יקב שורר 
 </t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>בשרי</t>
+          <t>פרווה</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>שלמה כהן 1</t>
+          <t>תלמי יחיאל 80</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>שלמה כהן 1, אשקלון</t>
+          <t>תלמי יחיאל 80, תלמי יחיאל</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>רחובות</t>
+          <t>נתניה</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
           <t xml:space="preserve">
-פרדייז 
+הפינה המתוקה 
 </t>
         </is>
       </c>
@@ -5113,112 +5125,112 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>הרצל 219</t>
+          <t>הגביש 4</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>הרצל 219, רחובות</t>
+          <t>הגביש 4, נתניה</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>תל אביב יפו</t>
+          <t>עכו</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
           <t xml:space="preserve">
-בזל בייקרי 
+מלון עכותיקה 
 </t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>חלבי, פרווה</t>
+          <t>חלבי</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>בזל 34</t>
+          <t>ההגנה</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>בזל 34, תל אביב יפו</t>
+          <t>ההגנה, עכו</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>ירושלים</t>
+          <t>אשקלון</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
           <t xml:space="preserve">
-הדודאים 
+מטעמי השף אלון 
 </t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>בשרי, חלבי</t>
+          <t>בשרי</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>יצחק מודעי 1, בית הלוחם</t>
+          <t>שלמה כהן 1</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>יצחק מודעי 1, בית הלוחם, ירושלים</t>
+          <t>שלמה כהן 1, אשקלון</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>בקוע</t>
+          <t>רחובות</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
           <t xml:space="preserve">
-כרם ברק 
+פרדייז 
 </t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>פרווה</t>
+          <t>חלבי</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>משק 46</t>
+          <t>הרצל 219</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>משק 46, בקוע</t>
+          <t>הרצל 219, רחובות</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>חולון</t>
+          <t>תל אביב יפו</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
           <t xml:space="preserve">
-כף קפה 
+בזל בייקרי 
 </t>
         </is>
       </c>
@@ -5229,12 +5241,12 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>שדרות ירושלים 214</t>
+          <t>בזל 34</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>שדרות ירושלים 214, חולון</t>
+          <t>בזל 34, תל אביב יפו</t>
         </is>
       </c>
     </row>
@@ -5247,81 +5259,81 @@
       <c r="B168" t="inlineStr">
         <is>
           <t xml:space="preserve">
-שוקא 
+הדודאים 
 </t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>בשרי</t>
+          <t>בשרי, חלבי</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>שילה 1</t>
+          <t>יצחק מודעי 1, בית הלוחם</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>שילה 1, ירושלים</t>
+          <t>יצחק מודעי 1, בית הלוחם, ירושלים</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>ירושלים</t>
+          <t>בקוע</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
           <t xml:space="preserve">
-מזנון המשק 
+כרם ברק 
 </t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>בשרי</t>
+          <t>פרווה</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>דרך ברודצקי 1</t>
+          <t>משק 46</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>דרך ברודצקי 1, ירושלים</t>
+          <t>משק 46, בקוע</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>נתיב הל"ה</t>
+          <t>חולון</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
           <t xml:space="preserve">
-הגן של איתן 
+כף קפה 
 </t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>פרווה</t>
+          <t>חלבי, פרווה</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>נתיב הל"ה 1</t>
+          <t>שדרות ירושלים 214</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>נתיב הל"ה 1, נתיב הל"ה</t>
+          <t>שדרות ירושלים 214, חולון</t>
         </is>
       </c>
     </row>
@@ -5334,139 +5346,139 @@
       <c r="B171" t="inlineStr">
         <is>
           <t xml:space="preserve">
-קומקום בית התה 
+שוקא 
 </t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>חלבי</t>
+          <t>בשרי</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>בית לחם 23</t>
+          <t>שילה 1</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>בית לחם 23, ירושלים</t>
+          <t>שילה 1, ירושלים</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>הוד השרון</t>
+          <t>ירושלים</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
           <t xml:space="preserve">
-נולה 
+מזנון המשק 
 </t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>בשרי, חלבי</t>
+          <t>בשרי</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>הרב רפאל ביטון 8</t>
+          <t>דרך ברודצקי 1</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>הרב רפאל ביטון 8, הוד השרון</t>
+          <t>דרך ברודצקי 1, ירושלים</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>יקום</t>
+          <t>ירושלים</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
           <t xml:space="preserve">
-מסטינג 
+קומקום בית התה 
 </t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>בשרי, חלבי</t>
+          <t>חלבי</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>פארק עסקים Greenwork</t>
+          <t>בית לחם 23</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>פארק עסקים Greenwork, יקום</t>
+          <t>בית לחם 23, ירושלים</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>ירושלים</t>
+          <t>הוד השרון</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
           <t xml:space="preserve">
-ביסטרו חלבי יודה 
+נולה 
 </t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>חלבי</t>
+          <t>בשרי, חלבי</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>ההגנה 21</t>
+          <t>הרב רפאל ביטון 8</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>ההגנה 21, ירושלים</t>
+          <t>הרב רפאל ביטון 8, הוד השרון</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>רמת השרון</t>
+          <t>יקום</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
           <t xml:space="preserve">
-אלין שוקולד 
+מסטינג 
 </t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>חלבי</t>
+          <t>בשרי, חלבי</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>המלכים 1</t>
+          <t>פארק עסקים Greenwork</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>המלכים 1, רמת השרון</t>
+          <t>פארק עסקים Greenwork, יקום</t>
         </is>
       </c>
     </row>
@@ -5479,36 +5491,36 @@
       <c r="B176" t="inlineStr">
         <is>
           <t xml:space="preserve">
-דוויני 
+ביסטרו חלבי יודה 
 </t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>בשרי</t>
+          <t>חלבי</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>בית יעקב 6</t>
+          <t>ההגנה 21</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>בית יעקב 6, ירושלים</t>
+          <t>ההגנה 21, ירושלים</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>תל אביב יפו</t>
+          <t>רמת השרון</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
           <t xml:space="preserve">
-בר בריאות 
+אלין שוקולד 
 </t>
         </is>
       </c>
@@ -5519,54 +5531,54 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>הרכבת 4</t>
+          <t>המלכים 1</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>הרכבת 4, תל אביב יפו</t>
+          <t>המלכים 1, רמת השרון</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>הוד השרון</t>
+          <t>ירושלים</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
           <t xml:space="preserve">
-גבינות המשק 
+דוויני 
 </t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>בשרי, חלבי</t>
+          <t>בשרי</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>סוקולוב 7</t>
+          <t>בית יעקב 6</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>סוקולוב 7, הוד השרון</t>
+          <t>בית יעקב 6, ירושלים</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>גני תקווה</t>
+          <t>תל אביב יפו</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
           <t xml:space="preserve">
-רחלי'ז 
+בר בריאות 
 </t>
         </is>
       </c>
@@ -5577,25 +5589,25 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>הגליל 78</t>
+          <t>הרכבת 4</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>הגליל 78, גני תקווה</t>
+          <t>הרכבת 4, תל אביב יפו</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>באר שבע</t>
+          <t>הוד השרון</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
           <t xml:space="preserve">
-ווישיי ישראל 
+גבינות המשק 
 </t>
         </is>
       </c>
@@ -5606,157 +5618,157 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>הקוצר 3</t>
+          <t>סוקולוב 7</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>הקוצר 3, באר שבע</t>
+          <t>סוקולוב 7, הוד השרון</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>תל אביב</t>
+          <t>גני תקווה</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
           <t xml:space="preserve">
-איידוק AIDOC 
+רחלי'ז 
 </t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>בשרי, חלבי</t>
+          <t>חלבי</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>עמינדב 3</t>
+          <t>הגליל 78</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>עמינדב 3, תל אביב</t>
+          <t>הגליל 78, גני תקווה</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>ירושלים</t>
+          <t>באר שבע</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
           <t xml:space="preserve">
-הסעדה ומגדניה – משק עפאים 
+ווישיי ישראל 
 </t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>חלבי</t>
+          <t>בשרי, חלבי</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>מרכז ספיר בניין 3</t>
+          <t>הקוצר 3</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>מרכז ספיר בניין 3, ירושלים</t>
+          <t>הקוצר 3, באר שבע</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>ירושלים</t>
+          <t>תל אביב</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
           <t xml:space="preserve">
-טאקוס לואיס 
+איידוק AIDOC 
 </t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>בשרי</t>
+          <t>בשרי, חלבי</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>שלומציון המלכה 11</t>
+          <t>עמינדב 3</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>שלומציון המלכה 11, ירושלים</t>
+          <t>עמינדב 3, תל אביב</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>ראשון לציון</t>
+          <t>ירושלים</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
           <t xml:space="preserve">
-שווארמה סטריט 
+הסעדה ומגדניה – משק עפאים 
 </t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>בשרי</t>
+          <t>חלבי</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>רוטשילד 39</t>
+          <t>מרכז ספיר בניין 3</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>רוטשילד 39, ראשון לציון</t>
+          <t>מרכז ספיר בניין 3, ירושלים</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>מזכרת בתיה</t>
+          <t>ירושלים</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
           <t xml:space="preserve">
-רובידה Deli 
+טאקוס לואיס 
 </t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>חלבי</t>
+          <t>בשרי</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>המייסדים 6</t>
+          <t>שלומציון המלכה 11</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>המייסדים 6, מזכרת בתיה</t>
+          <t>שלומציון המלכה 11, ירושלים</t>
         </is>
       </c>
     </row>
@@ -5769,7 +5781,7 @@
       <c r="B186" t="inlineStr">
         <is>
           <t xml:space="preserve">
-קצביה סופר אשלים – סופר יודה 
+שווארמה סטריט 
 </t>
         </is>
       </c>
@@ -5780,54 +5792,54 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>התזמורת 29</t>
+          <t>רוטשילד 39</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>התזמורת 29, ראשון לציון</t>
+          <t>רוטשילד 39, ראשון לציון</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>תל מונד</t>
+          <t>מזכרת בתיה</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
           <t xml:space="preserve">
-קצביה פמילי מרקט 
+רובידה Deli 
 </t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>בשרי</t>
+          <t>חלבי</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>הדקל 47</t>
+          <t>המייסדים 6</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>הדקל 47, תל מונד</t>
+          <t>המייסדים 6, מזכרת בתיה</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>הרצליה</t>
+          <t>ראשון לציון</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
           <t xml:space="preserve">
-קובה גוטה 
+קצביה סופר אשלים – סופר יודה 
 </t>
         </is>
       </c>
@@ -5838,41 +5850,41 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>המנופים 9</t>
+          <t>התזמורת 29</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>המנופים 9, הרצליה</t>
+          <t>התזמורת 29, ראשון לציון</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>ירושלים</t>
+          <t>תל מונד</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
           <t xml:space="preserve">
-ארומה – ארנה 
+קצביה פמילי מרקט 
 </t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>חלבי</t>
+          <t>בשרי</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>דרך דוד בנבנישתי 1</t>
+          <t>הדקל 47</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>דרך דוד בנבנישתי 1, ירושלים</t>
+          <t>הדקל 47, תל מונד</t>
         </is>
       </c>
     </row>
@@ -5885,7 +5897,7 @@
       <c r="B190" t="inlineStr">
         <is>
           <t xml:space="preserve">
-דוד לאור קיוסק 
+ארומה – ארנה 
 </t>
         </is>
       </c>
@@ -5896,25 +5908,25 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>גן גדעון</t>
+          <t>דרך דוד בנבנישתי 1</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>גן גדעון, ירושלים</t>
+          <t>דרך דוד בנבנישתי 1, ירושלים</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>רעננה</t>
+          <t>ירושלים</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
           <t xml:space="preserve">
-דולצ'ה 
+דוד לאור קיוסק 
 </t>
         </is>
       </c>
@@ -5925,25 +5937,25 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>המסגר 1</t>
+          <t>גן גדעון</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>המסגר 1, רעננה</t>
+          <t>גן גדעון, ירושלים</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>ירושלים</t>
+          <t>רעננה</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
           <t xml:space="preserve">
-קזה KAZZE 
+דולצ'ה 
 </t>
         </is>
       </c>
@@ -5954,215 +5966,215 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>בצלאל 7</t>
+          <t>המסגר 1</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>בצלאל 7, ירושלים</t>
+          <t>המסגר 1, רעננה</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>עמינדב</t>
+          <t>ירושלים</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
           <t xml:space="preserve">
-אוכל מהסרטים 
+קזה KAZZE 
 </t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>בשרי, חלבי</t>
+          <t>חלבי</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>מושב עמינדב</t>
+          <t>בצלאל 7</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>מושב עמינדב, עמינדב</t>
+          <t>בצלאל 7, ירושלים</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>הוד השרון</t>
+          <t>עמינדב</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
           <t xml:space="preserve">
-מסעדת עדן 
+אוכל מהסרטים 
 </t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>בשרי</t>
+          <t>בשרי, חלבי</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>דרך רמתיים 52</t>
+          <t>מושב עמינדב</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>דרך רמתיים 52, הוד השרון</t>
+          <t>מושב עמינדב, עמינדב</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>יתד</t>
+          <t>הוד השרון</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
           <t xml:space="preserve">
-אורגניקא גן ירק אורגני בע"מ 
+מסעדת עדן 
 </t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>פרווה</t>
+          <t>בשרי</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>משק 74</t>
+          <t>דרך רמתיים 52</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>משק 74, יתד</t>
+          <t>דרך רמתיים 52, הוד השרון</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>רעננה</t>
+          <t>יתד</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
           <t xml:space="preserve">
-קאייה CAYA 
+אורגניקא גן ירק אורגני בע"מ 
 </t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>חלבי</t>
+          <t>פרווה</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>בורוכוב 5</t>
+          <t>משק 74</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>בורוכוב 5, רעננה</t>
+          <t>משק 74, יתד</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>ירושלים</t>
+          <t>רעננה</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
           <t xml:space="preserve">
-סושי פלייס 
+קאייה CAYA 
 </t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>פרווה</t>
+          <t>חלבי</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>יואל משה סלומון 5</t>
+          <t>בורוכוב 5</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>יואל משה סלומון 5, ירושלים</t>
+          <t>בורוכוב 5, רעננה</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>ראשון לציון</t>
+          <t>ירושלים</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
           <t xml:space="preserve">
-הפלאפל של רמלה 
+סושי פלייס 
 </t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>בשרי, פרווה</t>
+          <t>פרווה</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>רוטשילד 47</t>
+          <t>יואל משה סלומון 5</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>רוטשילד 47, ראשון לציון</t>
+          <t>יואל משה סלומון 5, ירושלים</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>ירושלים</t>
+          <t>ראשון לציון</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
           <t xml:space="preserve">
-גוסטל שוקולד 
+הפלאפל של רמלה 
 </t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>חלבי</t>
+          <t>בשרי, פרווה</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>בית יעקב 2</t>
+          <t>רוטשילד 47</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>בית יעקב 2, ירושלים</t>
+          <t>רוטשילד 47, ראשון לציון</t>
         </is>
       </c>
     </row>
@@ -6749,129 +6761,129 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>בנימינה</t>
+          <t>ירושלים</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
           <t xml:space="preserve">
-משק עפאים 
+האקליפטוס 
 </t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>חלבי</t>
+          <t>בשרי</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>המייסדים 6</t>
+          <t>סמטת פלט 14</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>המייסדים 6, בנימינה</t>
+          <t>סמטת פלט 14, ירושלים</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>ירושלים</t>
+          <t>מעלה החמישה</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
           <t xml:space="preserve">
-האקליפטוס 
+קפה חממת הסחלבים 
 </t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>בשרי</t>
+          <t>חלבי</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>סמטת פלט 14</t>
+          <t>קיבוץ מעלה החמישה</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>סמטת פלט 14, ירושלים</t>
+          <t>קיבוץ מעלה החמישה, מעלה החמישה</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>מעלה החמישה</t>
+          <t>רמת גן</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
           <t xml:space="preserve">
-קפה חממת הסחלבים 
+קמאקורה 
 </t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>חלבי</t>
+          <t>בשרי, חלבי</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>קיבוץ מעלה החמישה</t>
+          <t>אהליאב 5, מלון אינדיגו</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>קיבוץ מעלה החמישה, מעלה החמישה</t>
+          <t>אהליאב 5, מלון אינדיגו, רמת גן</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>רמת גן</t>
+          <t>משמר השבעה</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
           <t xml:space="preserve">
-קמאקורה 
+סטייק אוף מיינד 
 </t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>בשרי, חלבי</t>
+          <t>בשרי</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>אהליאב 5, מלון אינדיגו</t>
+          <t>יצחק קורדובה 80</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>אהליאב 5, מלון אינדיגו, רמת גן</t>
+          <t>יצחק קורדובה 80, משמר השבעה</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>משמר השבעה</t>
+          <t>רחובות</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
           <t xml:space="preserve">
-סטייק אוף מיינד 
+חומוס בשר 
 </t>
         </is>
       </c>
@@ -6882,25 +6894,25 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>יצחק קורדובה 80</t>
+          <t>המדע 8, פארק המדע</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>יצחק קורדובה 80, משמר השבעה</t>
+          <t>המדע 8, פארק המדע, רחובות</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>רחובות</t>
+          <t>תל אביב יפו</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
           <t xml:space="preserve">
-חומוס בשר 
+פלאפל בן חור המסגר 
 </t>
         </is>
       </c>
@@ -6911,128 +6923,128 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>המדע 8, פארק המדע</t>
+          <t>המסגר 6</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>המדע 8, פארק המדע, רחובות</t>
+          <t>המסגר 6, תל אביב יפו</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>תל אביב יפו</t>
+          <t>כפר סבא</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
           <t xml:space="preserve">
-פלאפל בן חור המסגר 
+לחם אביתר 
 </t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>בשרי</t>
+          <t>חלבי, פרווה</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>המסגר 6</t>
+          <t>המסגר 2</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>המסגר 6, תל אביב יפו</t>
+          <t>המסגר 2, כפר סבא</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>כפר סבא</t>
+          <t>תל אביב</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
           <t xml:space="preserve">
-לחם אביתר 
+פלאפל בן חור פלורנטין 
 </t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>חלבי, פרווה</t>
+          <t>בשרי</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>המסגר 2</t>
+          <t>וושינגטון 32</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>המסגר 2, כפר סבא</t>
+          <t>וושינגטון 32, תל אביב</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>תל אביב</t>
+          <t>תל יצחק</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
           <t xml:space="preserve">
-פלאפל בן חור פלורנטין 
+אחוזת פולג 
 </t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>בשרי</t>
+          <t>בשרי, חלבי</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>וושינגטון 32</t>
+          <t>הגפן</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>וושינגטון 32, תל אביב</t>
+          <t>הגפן, תל יצחק</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>תל יצחק</t>
+          <t>תל אביב</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
           <t xml:space="preserve">
-אחוזת פולג 
+פבריציו 
 </t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>בשרי, חלבי</t>
+          <t>חלבי</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>הגפן</t>
+          <t>דיזנגוף 119</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>הגפן, תל יצחק</t>
+          <t>דיזנגוף 119, תל אביב</t>
         </is>
       </c>
     </row>
@@ -7045,36 +7057,36 @@
       <c r="B230" t="inlineStr">
         <is>
           <t xml:space="preserve">
-פבריציו 
+אלגריה 
 </t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>חלבי</t>
+          <t>פרווה</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>דיזנגוף 119</t>
+          <t>אבן גבירול 165</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>דיזנגוף 119, תל אביב</t>
+          <t>אבן גבירול 165, תל אביב</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>תל אביב</t>
+          <t>רעננה</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
           <t xml:space="preserve">
-אלגריה 
+לבריאות מטבח טבעוני 
 </t>
         </is>
       </c>
@@ -7085,228 +7097,228 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>אבן גבירול 165</t>
+          <t>אחוזה 142</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>אבן גבירול 165, תל אביב</t>
+          <t>אחוזה 142, רעננה</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>רעננה</t>
+          <t>תל אביב</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
           <t xml:space="preserve">
-לבריאות מטבח טבעוני 
+טייסטינג רום 
 </t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>פרווה</t>
+          <t>חלבי</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>אחוזה 142</t>
+          <t>אליעזר קפלן 36</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>אחוזה 142, רעננה</t>
+          <t>אליעזר קפלן 36, תל אביב</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>תל אביב</t>
+          <t>חולון</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
           <t xml:space="preserve">
-טייסטינג רום 
+אורט חולון- תיכון מיטרני 
 </t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>חלבי</t>
+          <t>חלבי, פרווה</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>אליעזר קפלן 36</t>
+          <t>שלום עליכם 5</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>אליעזר קפלן 36, תל אביב</t>
+          <t>שלום עליכם 5, חולון</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>חולון</t>
+          <t>בית אלפא</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
           <t xml:space="preserve">
-אורט חולון- תיכון מיטרני 
+מלון אלפא אירוח 
 </t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>חלבי, פרווה</t>
+          <t>בשרי, חלבי</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>שלום עליכם 5</t>
+          <t>בית אלפא</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>שלום עליכם 5, חולון</t>
+          <t>בית אלפא, בית אלפא</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>בית אלפא</t>
+          <t>נחשונים</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
           <t xml:space="preserve">
-מלון אלפא אירוח 
+אגף המזון – חדר אוכל – קיבוץ נחשונים 
 </t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>בשרי, חלבי</t>
+          <t>בשרי</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>בית אלפא</t>
+          <t>נחשונים</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>בית אלפא, בית אלפא</t>
+          <t>נחשונים, נחשונים</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>נחשונים</t>
+          <t>באר שבע</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
           <t xml:space="preserve">
-אגף המזון – חדר אוכל – קיבוץ נחשונים 
+מנצ'ילה 
 </t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>בשרי</t>
+          <t>בשרי, חלבי</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>נחשונים</t>
+          <t>ארלוזורוב 50</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>נחשונים, נחשונים</t>
+          <t>ארלוזורוב 50, באר שבע</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>באר שבע</t>
+          <t>מעגן</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
           <t xml:space="preserve">
-מנצ'ילה 
+כפר הנופש מעגן עדן 
 </t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>בשרי, חלבי</t>
+          <t>חלבי</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>ארלוזורוב 50</t>
+          <t>ד.נ עמק הירדן</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>ארלוזורוב 50, באר שבע</t>
+          <t>ד.נ עמק הירדן, מעגן</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>מעגן</t>
+          <t>תל אביב</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
           <t xml:space="preserve">
-כפר הנופש מעגן עדן 
+קפה רינת 
 </t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>בשרי, חלבי</t>
+          <t>חלבי</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>ד.נ עמק הירדן</t>
+          <t>אלנבי 57</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>ד.נ עמק הירדן, מעגן</t>
+          <t>אלנבי 57, תל אביב</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>תל אביב</t>
+          <t>ירושלים</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
           <t xml:space="preserve">
-קפה רינת 
+זיגמונד 
 </t>
         </is>
       </c>
@@ -7317,25 +7329,25 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>אלנבי 57</t>
+          <t>עזה 29</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>אלנבי 57, תל אביב</t>
+          <t>עזה 29, ירושלים</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>ירושלים</t>
+          <t>תל אביב</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
           <t xml:space="preserve">
-זיגמונד 
+טורטה דה לה נונה 
 </t>
         </is>
       </c>
@@ -7346,12 +7358,12 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>עזה 29</t>
+          <t>מלכי ישראל 13</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>עזה 29, ירושלים</t>
+          <t>מלכי ישראל 13, תל אביב</t>
         </is>
       </c>
     </row>
@@ -7364,7 +7376,7 @@
       <c r="B241" t="inlineStr">
         <is>
           <t xml:space="preserve">
-טורטה דה לה נונה 
+מתחת לעץ 
 </t>
         </is>
       </c>
@@ -7375,99 +7387,99 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>מלכי ישראל 13</t>
+          <t>רוטשילד 78</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>מלכי ישראל 13, תל אביב</t>
+          <t>רוטשילד 78, תל אביב</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>תל אביב</t>
+          <t>מעלה גלבוע</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
           <t xml:space="preserve">
-מתחת לעץ 
+מלון אוליב בגלבוע 
 </t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>חלבי</t>
+          <t>בשרי, חלבי</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>רוטשילד 78</t>
+          <t>דרך נוף הגלבוע</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>רוטשילד 78, תל אביב</t>
+          <t>דרך נוף הגלבוע, מעלה גלבוע</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>מעלה גלבוע</t>
+          <t>ראשון לציון</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
           <t xml:space="preserve">
-מלון אוליב בגלבוע 
+ארקפה 
 </t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>בשרי, חלבי</t>
+          <t>חלבי</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>דרך נוף הגלבוע</t>
+          <t>קניון ראשונים</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>דרך נוף הגלבוע, מעלה גלבוע</t>
+          <t>קניון ראשונים, ראשון לציון</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>ראשון לציון</t>
+          <t>רחובות</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
           <t xml:space="preserve">
-ארקפה 
+השדרה 
 </t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>חלבי</t>
+          <t>בשרי</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>קניון ראשונים</t>
+          <t>הרצל 203</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>קניון ראשונים, ראשון לציון</t>
+          <t>הרצל 203, רחובות</t>
         </is>
       </c>
     </row>
@@ -7480,65 +7492,65 @@
       <c r="B245" t="inlineStr">
         <is>
           <t xml:space="preserve">
-השדרה 
+פלאפל לעם 
 </t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>בשרי</t>
+          <t>פרווה</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>הרצל 203</t>
+          <t>אחד העם</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>הרצל 203, רחובות</t>
+          <t>אחד העם, רחובות</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>רחובות</t>
+          <t>תל אביב</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
           <t xml:space="preserve">
-פלאפל לעם 
+מאמא שושה 
 </t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>פרווה</t>
+          <t>חלבי</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>אחד העם</t>
+          <t>רודנסקי 5</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>אחד העם, רחובות</t>
+          <t>רודנסקי 5, תל אביב</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>תל אביב</t>
+          <t>רחובות</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
           <t xml:space="preserve">
-מאמא שושה 
+פטיסרי צביאלי 
 </t>
         </is>
       </c>
@@ -7549,25 +7561,25 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>רודנסקי 5</t>
+          <t>אחד העם 4</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>רודנסקי 5, תל אביב</t>
+          <t>אחד העם 4, רחובות</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>רחובות</t>
+          <t>תל אביב</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
           <t xml:space="preserve">
-פטיסרי צביאלי 
+דנון בית הספר למצוינות קולינרית 
 </t>
         </is>
       </c>
@@ -7578,186 +7590,186 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>אחד העם 4</t>
+          <t>נמל</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>אחד העם 4, רחובות</t>
+          <t>נמל, תל אביב</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>תל אביב</t>
+          <t>ירושלים</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
           <t xml:space="preserve">
-דנון בית הספר למצוינות קולינרית 
+בירתנו 
 </t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>חלבי</t>
+          <t>בשרי</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>נמל</t>
+          <t>הלל 6</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>נמל, תל אביב</t>
+          <t>הלל 6, ירושלים</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>ירושלים</t>
+          <t>מבוא מודיעים</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
           <t xml:space="preserve">
-בירתנו 
+האורגני 
 </t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>בשרי</t>
+          <t>פרווה</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>הלל 6</t>
+          <t>מבוא מודיעים</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>הלל 6, ירושלים</t>
+          <t>מבוא מודיעים, מבוא מודיעים</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>מבוא מודיעים</t>
+          <t>רעננה</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
           <t xml:space="preserve">
-האורגני 
+לאנצ'בוקס אינדיה 
 </t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>פרווה</t>
+          <t>חלבי</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>מבוא מודיעים</t>
+          <t>התעשייה 5</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>מבוא מודיעים, מבוא מודיעים</t>
+          <t>התעשייה 5, רעננה</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>רעננה</t>
+          <t>יקנעם</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
           <t xml:space="preserve">
-לאנצ'בוקס אינדיה 
+מעדני בשר 
 </t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>חלבי</t>
+          <t>בשרי</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>התעשייה 5</t>
+          <t>התעשיה 5</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>התעשייה 5, רעננה</t>
+          <t>התעשיה 5, יקנעם</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>יקנעם</t>
+          <t>ירושלים</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
           <t xml:space="preserve">
-מעדני בשר 
+סושיה 
 </t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>בשרי</t>
+          <t>פרווה</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>התעשיה 5</t>
+          <t>טרומפלדור 1</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>התעשיה 5, יקנעם</t>
+          <t>טרומפלדור 1, ירושלים</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>ירושלים</t>
+          <t>כפר סבא</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
           <t xml:space="preserve">
-סושיה 
+פיורי חצר השוק 
 </t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>פרווה</t>
+          <t>חלבי</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>טרומפלדור 1</t>
+          <t>ויצמן 125</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>טרומפלדור 1, ירושלים</t>
+          <t>ויצמן 125, כפר סבא</t>
         </is>
       </c>
     </row>
@@ -7770,94 +7782,94 @@
       <c r="B255" t="inlineStr">
         <is>
           <t xml:space="preserve">
-פיורי חצר השוק 
+מר קר בשר 
 </t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>חלבי</t>
+          <t>בשרי</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>ויצמן 125</t>
+          <t>ויצמן 189</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>ויצמן 125, כפר סבא</t>
+          <t>ויצמן 189, כפר סבא</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>כפר סבא</t>
+          <t>ירושלים</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
           <t xml:space="preserve">
-מר קר בשר 
+מלון פעמונים 
 </t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>בשרי</t>
+          <t>בשרי, חלבי</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>ויצמן 189</t>
+          <t>המלך ג'ורג' 4</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>ויצמן 189, כפר סבא</t>
+          <t>המלך ג'ורג' 4, ירושלים</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>ירושלים</t>
+          <t>תל אביב</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
           <t xml:space="preserve">
-מלון פעמונים 
+פיקה 
 </t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>בשרי, חלבי</t>
+          <t>חלבי</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>המלך ג'ורג' 4</t>
+          <t>תושיה 6</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>המלך ג'ורג' 4, ירושלים</t>
+          <t>תושיה 6, תל אביב</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>תל אביב</t>
+          <t>עשרת</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
           <t xml:space="preserve">
-פיקה 
+פיצה בית העם גדרות 
 </t>
         </is>
       </c>
@@ -7868,70 +7880,70 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>תושיה 6</t>
+          <t>הרימון 8</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>תושיה 6, תל אביב</t>
+          <t>הרימון 8, עשרת</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>עשרת</t>
+          <t>באר שבע</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
           <t xml:space="preserve">
-פיצה בית העם גדרות 
+מלכה פלוס סודה סטרים 
 </t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>חלבי</t>
+          <t>בשרי, חלבי</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>הרימון 8</t>
+          <t>צומת רהט להבים</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>הרימון 8, עשרת</t>
+          <t>צומת רהט להבים, באר שבע</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>באר שבע</t>
+          <t>תל אביב</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
           <t xml:space="preserve">
-מלכה פלוס סודה סטרים 
+עמינדב 
 </t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>בשרי, חלבי</t>
+          <t>חלבי</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>צומת רהט להבים</t>
+          <t>שדרות ההשכלה 1 פינת עמינדב 23</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>צומת רהט להבים, באר שבע</t>
+          <t>שדרות ההשכלה 1 פינת עמינדב 23, תל אביב</t>
         </is>
       </c>
     </row>
@@ -7944,7 +7956,7 @@
       <c r="B261" t="inlineStr">
         <is>
           <t xml:space="preserve">
-עמינדב 
+מילק בייקרי 
 </t>
         </is>
       </c>
@@ -7955,12 +7967,12 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>שדרות ההשכלה 1 פינת עמינדב 23</t>
+          <t>בית אשל 5</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>שדרות ההשכלה 1 פינת עמינדב 23, תל אביב</t>
+          <t>בית אשל 5, תל אביב</t>
         </is>
       </c>
     </row>
@@ -7973,23 +7985,23 @@
       <c r="B262" t="inlineStr">
         <is>
           <t xml:space="preserve">
-מילק בייקרי 
+וויסקי בר 
 </t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>חלבי</t>
+          <t>בשרי</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>בית אשל 5</t>
+          <t>דוד אלעזר 27 (שרונה)</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>בית אשל 5, תל אביב</t>
+          <t>דוד אלעזר 27 (שרונה), תל אביב</t>
         </is>
       </c>
     </row>
@@ -8002,23 +8014,23 @@
       <c r="B263" t="inlineStr">
         <is>
           <t xml:space="preserve">
-וויסקי בר 
+דוסה בר 
 </t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>בשרי</t>
+          <t>פרווה</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>דוד אלעזר 27 (שרונה)</t>
+          <t>בן יהודה 188</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>דוד אלעזר 27 (שרונה), תל אביב</t>
+          <t>בן יהודה 188, תל אביב</t>
         </is>
       </c>
     </row>
@@ -8031,36 +8043,36 @@
       <c r="B264" t="inlineStr">
         <is>
           <t xml:space="preserve">
-דוסה בר 
+אסטלה 
 </t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>פרווה</t>
+          <t>חלבי</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>בן יהודה 188</t>
+          <t>הכישור 4</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>בן יהודה 188, תל אביב</t>
+          <t>הכישור 4, תל אביב</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>תל אביב</t>
+          <t>רמת גן</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
           <t xml:space="preserve">
-אסטלה 
+לה קוצ'ינה 
 </t>
         </is>
       </c>
@@ -8071,25 +8083,25 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>הכישור 4</t>
+          <t>ביאליק 59</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>הכישור 4, תל אביב</t>
+          <t>ביאליק 59, רמת גן</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>רמת גן</t>
+          <t>ירושלים</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
           <t xml:space="preserve">
-לה קוצ'ינה 
+קפה קרוסלה 
 </t>
         </is>
       </c>
@@ -8100,12 +8112,12 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>ביאליק 59</t>
+          <t>מטודלה 1 פינת עזה</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>ביאליק 59, רמת גן</t>
+          <t>מטודלה 1 פינת עזה, ירושלים</t>
         </is>
       </c>
     </row>
@@ -8118,7 +8130,7 @@
       <c r="B267" t="inlineStr">
         <is>
           <t xml:space="preserve">
-קפה קרוסלה 
+עפאים הנסן 
 </t>
         </is>
       </c>
@@ -8129,12 +8141,12 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>מטודלה 1 פינת עזה</t>
+          <t>גדליהו אלון 14</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>מטודלה 1 פינת עזה, ירושלים</t>
+          <t>גדליהו אלון 14, ירושלים</t>
         </is>
       </c>
     </row>
@@ -8147,7 +8159,7 @@
       <c r="B268" t="inlineStr">
         <is>
           <t xml:space="preserve">
-עפאים הנסן 
+עפאים בית הכרם 
 </t>
         </is>
       </c>
@@ -8158,12 +8170,12 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>גדליהו אלון 14</t>
+          <t>בית הכרם 19</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>גדליהו אלון 14, ירושלים</t>
+          <t>בית הכרם 19, ירושלים</t>
         </is>
       </c>
     </row>
@@ -8176,7 +8188,7 @@
       <c r="B269" t="inlineStr">
         <is>
           <t xml:space="preserve">
-עפאים בית הכרם 
+טחנת הקפה 
 </t>
         </is>
       </c>
@@ -8187,12 +8199,12 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>בית הכרם 19</t>
+          <t>עמק רפאים 23</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>בית הכרם 19, ירושלים</t>
+          <t>עמק רפאים 23, ירושלים</t>
         </is>
       </c>
     </row>
@@ -8205,23 +8217,23 @@
       <c r="B270" t="inlineStr">
         <is>
           <t xml:space="preserve">
-טחנת הקפה 
+חוות קיימא 
 </t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>חלבי</t>
+          <t>פרווה</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>עמק רפאים 23</t>
+          <t>מושב בית זית 310</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>עמק רפאים 23, ירושלים</t>
+          <t>מושב בית זית 310, ירושלים</t>
         </is>
       </c>
     </row>
@@ -8234,23 +8246,23 @@
       <c r="B271" t="inlineStr">
         <is>
           <t xml:space="preserve">
-חוות קיימא 
+מלון וילה בראון 
 </t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>פרווה</t>
+          <t>חלבי</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>מושב בית זית 310</t>
+          <t>הנביאים 54</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>מושב בית זית 310, ירושלים</t>
+          <t>הנביאים 54, ירושלים</t>
         </is>
       </c>
     </row>
@@ -8263,7 +8275,7 @@
       <c r="B272" t="inlineStr">
         <is>
           <t xml:space="preserve">
-מלון וילה בראון 
+המקום של איציק 
 </t>
         </is>
       </c>
@@ -8274,12 +8286,12 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>הנביאים 54</t>
+          <t>דרך בית לחם 33</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>הנביאים 54, ירושלים</t>
+          <t>דרך בית לחם 33, ירושלים</t>
         </is>
       </c>
     </row>
@@ -8292,50 +8304,21 @@
       <c r="B273" t="inlineStr">
         <is>
           <t xml:space="preserve">
-המקום של איציק 
+ג'ורג'י 
 </t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>חלבי</t>
+          <t>בשרי</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>דרך בית לחם 33</t>
+          <t>המלך ג'ורג' 37</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
-        <is>
-          <t>דרך בית לחם 33, ירושלים</t>
-        </is>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="inlineStr">
-        <is>
-          <t>ירושלים</t>
-        </is>
-      </c>
-      <c r="B274" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-ג'ורג'י 
-</t>
-        </is>
-      </c>
-      <c r="C274" t="inlineStr">
-        <is>
-          <t>בשרי</t>
-        </is>
-      </c>
-      <c r="D274" t="inlineStr">
-        <is>
-          <t>המלך ג'ורג' 37</t>
-        </is>
-      </c>
-      <c r="E274" t="inlineStr">
         <is>
           <t>המלך ג'ורג' 37, ירושלים</t>
         </is>
